--- a/artfynd/A 3929-2021.xlsx
+++ b/artfynd/A 3929-2021.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92747916</v>
+        <v>92745062</v>
       </c>
       <c r="B3" t="n">
-        <v>88806</v>
+        <v>5113</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,35 +809,41 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5685</v>
+        <v>100526</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Södermossen, Almunge, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>673322.9868661537</v>
+        <v>673464.1554232104</v>
       </c>
       <c r="R3" t="n">
-        <v>6636146.284332063</v>
+        <v>6636428.315209024</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92747998</v>
+        <v>100051123</v>
       </c>
       <c r="B4" t="n">
-        <v>78098</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,38 +928,41 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Södermossen, Almunge, Upl</t>
+          <t>Stormossen, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>673318.2269783486</v>
+        <v>673492.1410524645</v>
       </c>
       <c r="R4" t="n">
-        <v>6636107.791586022</v>
+        <v>6636423.077628629</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -977,7 +986,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -987,7 +996,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1003,26 +1012,41 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>92747840</v>
+        <v>100051131</v>
       </c>
       <c r="B5" t="n">
-        <v>79433</v>
+        <v>103265</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,42 +1055,53 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1049</v>
+        <v>221144</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Södermossen, Almunge, Upl</t>
+          <t>Stormossen, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>673292.4338426071</v>
+        <v>673458.6327161397</v>
       </c>
       <c r="R5" t="n">
-        <v>6636174.063807501</v>
+        <v>6636416.979609139</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1090,7 +1125,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1100,7 +1135,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1114,28 +1149,29 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>92745062</v>
+        <v>106175097</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>6202</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,44 +1184,46 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>105336</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>insamlad för uppfödning/kläckning</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Södermossen, Almunge, Upl</t>
+          <t>Sågarbol, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>673464.1554232104</v>
+        <v>673474.1941814732</v>
       </c>
       <c r="R6" t="n">
-        <v>6636428.315209024</v>
+        <v>6636450.939285606</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1209,7 +1247,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1219,7 +1257,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1227,6 +1265,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>HC11</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1235,26 +1278,50 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>knölticka</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Neoantrodia serialis</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Neoantrodia serialis # Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Tore Dahlberg</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Insects associated with Amyloporia sinuosa, A. xantha and Neoantrodia serialis</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92889491</v>
+        <v>92747916</v>
       </c>
       <c r="B7" t="n">
-        <v>78098</v>
+        <v>88806</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1263,39 +1330,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>5685</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Uppsala, Upl</t>
+          <t>Södermossen, Almunge, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>673205.4604880173</v>
+        <v>673322.9868661537</v>
       </c>
       <c r="R7" t="n">
-        <v>6636243.521739633</v>
+        <v>6636146.284332063</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1322,7 +1389,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1332,7 +1399,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1352,22 +1419,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Per Bengtson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Per Bengtson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100051123</v>
+        <v>92747998</v>
       </c>
       <c r="B8" t="n">
-        <v>89392</v>
+        <v>78098</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,41 +1447,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Stormossen, Upl</t>
+          <t>Södermossen, Almunge, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>673492.1410524645</v>
+        <v>673318.2269783486</v>
       </c>
       <c r="R8" t="n">
-        <v>6636423.077628629</v>
+        <v>6636107.791586022</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1438,7 +1502,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1448,7 +1512,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1464,41 +1528,26 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100051131</v>
+        <v>92747840</v>
       </c>
       <c r="B9" t="n">
-        <v>103265</v>
+        <v>79433</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1507,53 +1556,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>1049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Stormossen, Upl</t>
+          <t>Södermossen, Almunge, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>673458.6327161397</v>
+        <v>673292.4338426071</v>
       </c>
       <c r="R9" t="n">
-        <v>6636416.979609139</v>
+        <v>6636174.063807501</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1577,7 +1615,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1587,7 +1625,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1601,29 +1639,28 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106175077</v>
+        <v>92889491</v>
       </c>
       <c r="B10" t="n">
-        <v>6202</v>
+        <v>78098</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,50 +1669,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>105336</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>insamlad för uppfödning/kläckning</t>
-        </is>
-      </c>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Sågarbol, Upl</t>
+          <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>673378.0518269691</v>
+        <v>673205.4604880173</v>
       </c>
       <c r="R10" t="n">
-        <v>6636014.907714852</v>
+        <v>6636243.521739633</v>
       </c>
       <c r="S10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1699,7 +1728,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1709,7 +1738,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1717,11 +1746,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>HC15</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1730,50 +1754,26 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>citronticka</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Amyloporia xantha</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Amyloporia xantha # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Per Bengtson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>Insects associated with Amyloporia sinuosa, A. xantha and Neoantrodia serialis</t>
-        </is>
-      </c>
+          <t>Per Bengtson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106175095</v>
+        <v>106175077</v>
       </c>
       <c r="B11" t="n">
-        <v>6211</v>
+        <v>6202</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1782,30 +1782,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100524</v>
+        <v>105336</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig flatbagge</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Calitys scabra</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Thunberg, 1784)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>673369.8003005481</v>
+        <v>673378.0518269691</v>
       </c>
       <c r="R11" t="n">
-        <v>6636299.534704822</v>
+        <v>6636014.907714852</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>HC12</t>
+          <t>HC15</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>timmerticka</t>
+          <t>citronticka</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Amyloporia sinuosa</t>
+          <t>Amyloporia xantha</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Amyloporia sinuosa # Pinus sylvestris</t>
+          <t>Amyloporia xantha # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106175080</v>
+        <v>106175095</v>
       </c>
       <c r="B12" t="n">
-        <v>26596</v>
+        <v>6211</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1932,30 +1932,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100658</v>
+        <v>100524</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk vedstrit</t>
+          <t>Skrovlig flatbagge</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cixidia confinis</t>
+          <t>Calitys scabra</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Zetterstedt, 1838)</t>
+          <t>(Thunberg, 1784)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>673378.0518269691</v>
+        <v>673369.8003005481</v>
       </c>
       <c r="R12" t="n">
-        <v>6636014.907714852</v>
+        <v>6636299.534704822</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>HC15</t>
+          <t>HC12</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>citronticka</t>
+          <t>timmerticka</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Amyloporia xantha</t>
+          <t>Amyloporia sinuosa</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Amyloporia xantha # Pinus sylvestris</t>
+          <t>Amyloporia sinuosa # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106175094</v>
+        <v>106175080</v>
       </c>
       <c r="B13" t="n">
-        <v>4742</v>
+        <v>26596</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2082,30 +2082,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>101816</v>
+        <v>100658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Timmertickgnagare</t>
+          <t>Mörk vedstrit</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Stagetus borealis</t>
+          <t>Cixidia confinis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Israelson, 1971</t>
+          <t>(Zetterstedt, 1838)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2119,10 +2119,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>673369.8003005481</v>
+        <v>673378.0518269691</v>
       </c>
       <c r="R13" t="n">
-        <v>6636299.534704822</v>
+        <v>6636014.907714852</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>HC12</t>
+          <t>HC15</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>timmerticka</t>
+          <t>citronticka</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Amyloporia sinuosa</t>
+          <t>Amyloporia xantha</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Amyloporia sinuosa # Pinus sylvestris</t>
+          <t>Amyloporia xantha # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106175097</v>
+        <v>106175094</v>
       </c>
       <c r="B14" t="n">
-        <v>6202</v>
+        <v>4742</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2232,30 +2232,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>105336</v>
+        <v>101816</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Timmertickgnagare</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Stagetus borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Israelson, 1971</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>673474.1941814732</v>
+        <v>673369.8003005481</v>
       </c>
       <c r="R14" t="n">
-        <v>6636450.939285606</v>
+        <v>6636299.534704822</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>HC11</t>
+          <t>HC12</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2333,22 +2333,22 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>knölticka</t>
+          <t>timmerticka</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Neoantrodia serialis</t>
+          <t>Amyloporia sinuosa</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Neoantrodia serialis # Picea abies</t>
+          <t>Amyloporia sinuosa # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>

--- a/artfynd/A 3929-2021.xlsx
+++ b/artfynd/A 3929-2021.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92745062</v>
+        <v>92747916</v>
       </c>
       <c r="B3" t="n">
-        <v>5113</v>
+        <v>88806</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,41 +809,35 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100526</v>
+        <v>5685</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Södermossen, Almunge, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>673464.1554232104</v>
+        <v>673322.9868661537</v>
       </c>
       <c r="R3" t="n">
-        <v>6636428.315209024</v>
+        <v>6636146.284332063</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -912,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100051123</v>
+        <v>92747998</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>78098</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,41 +922,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Stormossen, Upl</t>
+          <t>Södermossen, Almunge, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>673492.1410524645</v>
+        <v>673318.2269783486</v>
       </c>
       <c r="R4" t="n">
-        <v>6636423.077628629</v>
+        <v>6636107.791586022</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -986,7 +977,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -996,7 +987,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1012,41 +1003,26 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100051131</v>
+        <v>92747840</v>
       </c>
       <c r="B5" t="n">
-        <v>103265</v>
+        <v>79433</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,53 +1031,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221144</v>
+        <v>1049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Stormossen, Upl</t>
+          <t>Södermossen, Almunge, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>673458.6327161397</v>
+        <v>673292.4338426071</v>
       </c>
       <c r="R5" t="n">
-        <v>6636416.979609139</v>
+        <v>6636174.063807501</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1125,7 +1090,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1135,7 +1100,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1149,29 +1114,28 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106175097</v>
+        <v>92745062</v>
       </c>
       <c r="B6" t="n">
-        <v>6202</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,46 +1148,44 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>105336</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>insamlad för uppfödning/kläckning</t>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sågarbol, Upl</t>
+          <t>Södermossen, Almunge, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>673474.1941814732</v>
+        <v>673464.1554232104</v>
       </c>
       <c r="R6" t="n">
-        <v>6636450.939285606</v>
+        <v>6636428.315209024</v>
       </c>
       <c r="S6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1247,7 +1209,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1257,7 +1219,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1265,11 +1227,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>HC11</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1278,50 +1235,26 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>knölticka</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Neoantrodia serialis</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Neoantrodia serialis # Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Insects associated with Amyloporia sinuosa, A. xantha and Neoantrodia serialis</t>
-        </is>
-      </c>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92747916</v>
+        <v>92889491</v>
       </c>
       <c r="B7" t="n">
-        <v>88806</v>
+        <v>78098</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1330,39 +1263,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5685</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Södermossen, Almunge, Upl</t>
+          <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>673322.9868661537</v>
+        <v>673205.4604880173</v>
       </c>
       <c r="R7" t="n">
-        <v>6636146.284332063</v>
+        <v>6636243.521739633</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1389,7 +1322,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1399,7 +1332,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1419,22 +1352,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Per Bengtson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Per Bengtson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92747998</v>
+        <v>100051123</v>
       </c>
       <c r="B8" t="n">
-        <v>78098</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1447,38 +1380,41 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Södermossen, Almunge, Upl</t>
+          <t>Stormossen, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>673318.2269783486</v>
+        <v>673492.1410524645</v>
       </c>
       <c r="R8" t="n">
-        <v>6636107.791586022</v>
+        <v>6636423.077628629</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1502,7 +1438,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1512,7 +1448,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1528,26 +1464,41 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>92747840</v>
+        <v>100051131</v>
       </c>
       <c r="B9" t="n">
-        <v>79433</v>
+        <v>103265</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1556,42 +1507,53 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1049</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Södermossen, Almunge, Upl</t>
+          <t>Stormossen, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>673292.4338426071</v>
+        <v>673458.6327161397</v>
       </c>
       <c r="R9" t="n">
-        <v>6636174.063807501</v>
+        <v>6636416.979609139</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1615,7 +1577,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1625,7 +1587,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1639,28 +1601,29 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>92889491</v>
+        <v>106175077</v>
       </c>
       <c r="B10" t="n">
-        <v>78098</v>
+        <v>6202</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1669,42 +1632,50 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>105336</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>insamlad för uppfödning/kläckning</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Uppsala, Upl</t>
+          <t>Sågarbol, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>673205.4604880173</v>
+        <v>673378.0518269691</v>
       </c>
       <c r="R10" t="n">
-        <v>6636243.521739633</v>
+        <v>6636014.907714852</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1728,7 +1699,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1738,7 +1709,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1746,6 +1717,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>HC15</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1754,26 +1730,50 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>citronticka</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Amyloporia xantha</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Amyloporia xantha # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Per Bengtson</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Per Bengtson</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
+          <t>Tore Dahlberg</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Insects associated with Amyloporia sinuosa, A. xantha and Neoantrodia serialis</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106175077</v>
+        <v>106175095</v>
       </c>
       <c r="B11" t="n">
-        <v>6202</v>
+        <v>6211</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1782,30 +1782,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>105336</v>
+        <v>100524</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Skrovlig flatbagge</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Calitys scabra</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Thunberg, 1784)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>673378.0518269691</v>
+        <v>673369.8003005481</v>
       </c>
       <c r="R11" t="n">
-        <v>6636014.907714852</v>
+        <v>6636299.534704822</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>HC15</t>
+          <t>HC12</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>citronticka</t>
+          <t>timmerticka</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Amyloporia xantha</t>
+          <t>Amyloporia sinuosa</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Amyloporia xantha # Pinus sylvestris</t>
+          <t>Amyloporia sinuosa # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106175095</v>
+        <v>106175080</v>
       </c>
       <c r="B12" t="n">
-        <v>6211</v>
+        <v>26596</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1932,30 +1932,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100524</v>
+        <v>100658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovlig flatbagge</t>
+          <t>Mörk vedstrit</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Calitys scabra</t>
+          <t>Cixidia confinis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Thunberg, 1784)</t>
+          <t>(Zetterstedt, 1838)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>673369.8003005481</v>
+        <v>673378.0518269691</v>
       </c>
       <c r="R12" t="n">
-        <v>6636299.534704822</v>
+        <v>6636014.907714852</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>HC12</t>
+          <t>HC15</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>timmerticka</t>
+          <t>citronticka</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Amyloporia sinuosa</t>
+          <t>Amyloporia xantha</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Amyloporia sinuosa # Pinus sylvestris</t>
+          <t>Amyloporia xantha # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106175080</v>
+        <v>106175094</v>
       </c>
       <c r="B13" t="n">
-        <v>26596</v>
+        <v>4742</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2082,30 +2082,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100658</v>
+        <v>101816</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mörk vedstrit</t>
+          <t>Timmertickgnagare</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cixidia confinis</t>
+          <t>Stagetus borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Zetterstedt, 1838)</t>
+          <t>Israelson, 1971</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2119,10 +2119,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>673378.0518269691</v>
+        <v>673369.8003005481</v>
       </c>
       <c r="R13" t="n">
-        <v>6636014.907714852</v>
+        <v>6636299.534704822</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>HC15</t>
+          <t>HC12</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>citronticka</t>
+          <t>timmerticka</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Amyloporia xantha</t>
+          <t>Amyloporia sinuosa</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Amyloporia xantha # Pinus sylvestris</t>
+          <t>Amyloporia sinuosa # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106175094</v>
+        <v>106175097</v>
       </c>
       <c r="B14" t="n">
-        <v>4742</v>
+        <v>6202</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2232,30 +2232,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>101816</v>
+        <v>105336</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Timmertickgnagare</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Stagetus borealis</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Israelson, 1971</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>673369.8003005481</v>
+        <v>673474.1941814732</v>
       </c>
       <c r="R14" t="n">
-        <v>6636299.534704822</v>
+        <v>6636450.939285606</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>HC12</t>
+          <t>HC11</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2333,22 +2333,22 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>timmerticka</t>
+          <t>knölticka</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Amyloporia sinuosa</t>
+          <t>Neoantrodia serialis</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Amyloporia sinuosa # Pinus sylvestris</t>
+          <t>Neoantrodia serialis # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
